--- a/DOC/20180524系统梳理.xlsx
+++ b/DOC/20180524系统梳理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="84">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,10 +243,6 @@
   </si>
   <si>
     <t>1、初始化导航功能优化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、初始化导航-公司属性调协，添加经纬度；营业执照，法人身份证，公司LOGO，</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -340,6 +336,22 @@
   </si>
   <si>
     <t>11、销价管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、初始化导航-公司属性调协，添加经纬度；营业执照，法人身份证，公司LOGO，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -363,7 +375,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -373,6 +385,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,13 +407,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -406,10 +431,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -711,22 +733,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.5" customWidth="1"/>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.875" customWidth="1"/>
     <col min="3" max="3" width="49.75" customWidth="1"/>
-    <col min="4" max="4" width="11.25" customWidth="1"/>
-    <col min="5" max="5" width="28.875" customWidth="1"/>
+    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -742,8 +764,14 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -754,13 +782,13 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="7">
+        <v>72</v>
+      </c>
+      <c r="E2" s="4">
         <v>43246</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -768,16 +796,16 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="7">
+        <v>72</v>
+      </c>
+      <c r="E3" s="4">
         <v>43247</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -785,555 +813,718 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="7">
+        <v>73</v>
+      </c>
+      <c r="E4" s="4">
         <v>43250</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="7">
+        <v>75</v>
+      </c>
+      <c r="E5" s="4">
         <v>43245</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B6" s="3"/>
-      <c r="C6" s="6" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B7" s="3"/>
-      <c r="C7" s="6" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B8" s="3"/>
-      <c r="C8" s="6" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B9" s="3"/>
-      <c r="C9" s="6" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="7">
-        <v>43250</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B11" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="E10" s="4">
+        <v>43245</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="4">
+        <v>43245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7"/>
       <c r="C11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="7">
-        <v>43250</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="B12" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="E11" s="4">
+        <v>43245</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7"/>
       <c r="C12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="7">
-        <v>43250</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B13" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="E12" s="4">
+        <v>43245</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7"/>
       <c r="C13" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="7">
-        <v>43250</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="B14" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="E13" s="4">
+        <v>43245</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7"/>
       <c r="C14" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" s="7">
-        <v>43250</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="B15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="4">
+        <v>43247</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="7">
-        <v>43250</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B16" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="E15" s="4">
+        <v>43247</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7"/>
       <c r="C16" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="7">
-        <v>43250</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="B17" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="E16" s="4">
+        <v>43247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7"/>
       <c r="C17" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="7">
-        <v>43250</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B18" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="E17" s="4">
+        <v>43247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7"/>
       <c r="C18" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="7">
-        <v>43250</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="B19" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="E18" s="4">
+        <v>43246</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7"/>
       <c r="C19" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" s="7">
-        <v>43250</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B20" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="4">
+        <v>43245</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="7">
-        <v>43250</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="B21" s="5"/>
+        <v>73</v>
+      </c>
+      <c r="E20" s="4">
+        <v>43246</v>
+      </c>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8"/>
       <c r="C21" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="7">
-        <v>43250</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="B22" s="5"/>
+        <v>73</v>
+      </c>
+      <c r="E21" s="4">
+        <v>43246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8"/>
       <c r="C22" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="7">
-        <v>43250</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="4">
+        <v>43246</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23" s="7">
-        <v>43250</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="B24" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="E23" s="4">
+        <v>43247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7"/>
       <c r="C24" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
-      </c>
-      <c r="E24" s="7">
-        <v>43250</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="B25" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="E24" s="4">
+        <v>43247</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7"/>
       <c r="C25" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D25" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" s="7">
-        <v>43250</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B26" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="E25" s="4">
+        <v>43247</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="7"/>
       <c r="C26" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
-      </c>
-      <c r="E26" s="7">
-        <v>43250</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B27" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="E26" s="4">
+        <v>43245</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7"/>
       <c r="C27" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
-      </c>
-      <c r="E27" s="7">
-        <v>43250</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="E27" s="4">
+        <v>43247</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7"/>
       <c r="C28" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D28" t="s">
-        <v>74</v>
-      </c>
-      <c r="E28" s="7">
-        <v>43250</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B29" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
+      </c>
+      <c r="E28" s="4">
+        <v>43246</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D29" t="s">
-        <v>77</v>
-      </c>
-      <c r="E29" s="7">
-        <v>43250</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B30" s="4"/>
+        <v>76</v>
+      </c>
+      <c r="E29" s="4">
+        <v>43248</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7"/>
       <c r="C30" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D30" t="s">
-        <v>77</v>
-      </c>
-      <c r="E30" s="7">
-        <v>43250</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B31" s="4"/>
+        <v>76</v>
+      </c>
+      <c r="E30" s="4">
+        <v>43248</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="7"/>
       <c r="C31" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D31" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31" s="7">
-        <v>43250</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B32" s="4"/>
+        <v>76</v>
+      </c>
+      <c r="E31" s="4">
+        <v>43249</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="7"/>
       <c r="C32" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D32" t="s">
-        <v>77</v>
-      </c>
-      <c r="E32" s="7">
-        <v>43250</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B33" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="4">
+        <v>43249</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>55</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="B34" s="4"/>
+      <c r="E33" s="4">
+        <v>43248</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="7"/>
       <c r="C34" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="4">
+        <v>43248</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="4">
+        <v>43248</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D34" t="s">
-        <v>74</v>
-      </c>
-      <c r="E34" s="7">
-        <v>43250</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="B35" s="4"/>
-      <c r="C35" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D35" t="s">
-        <v>74</v>
-      </c>
-      <c r="E35" s="7">
-        <v>43250</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B36" s="4"/>
-      <c r="C36" s="2" t="s">
+      <c r="D36" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="4">
+        <v>43248</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D36" t="s">
-        <v>74</v>
-      </c>
-      <c r="E36" s="7">
-        <v>43250</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B37" s="4"/>
-      <c r="C37" s="2" t="s">
+      <c r="D37" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="4">
+        <v>43248</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D37" t="s">
-        <v>74</v>
-      </c>
-      <c r="E37" s="7">
-        <v>43250</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="B38" s="4"/>
-      <c r="C38" s="2" t="s">
+      <c r="D38" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" s="4">
+        <v>43247</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D38" t="s">
-        <v>73</v>
-      </c>
-      <c r="E38" s="7">
-        <v>43247</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B39" s="4"/>
-      <c r="C39" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="D39" t="s">
-        <v>74</v>
-      </c>
-      <c r="E39" s="7">
-        <v>43250</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B40" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="E39" s="4">
+        <v>43248</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="7"/>
       <c r="C40" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" s="4">
+        <v>43258</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D40" t="s">
-        <v>73</v>
-      </c>
-      <c r="E40" s="7">
-        <v>43250</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B41" s="4"/>
-      <c r="C41" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="D41" t="s">
-        <v>73</v>
-      </c>
-      <c r="E41" s="7">
-        <v>43250</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B42" s="4"/>
+        <v>72</v>
+      </c>
+      <c r="E41" s="4">
+        <v>43258</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="7"/>
       <c r="C42" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" t="s">
         <v>72</v>
       </c>
-      <c r="D42" t="s">
-        <v>73</v>
-      </c>
-      <c r="E42" s="7">
-        <v>43250</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E42" s="4">
+        <v>43258</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>42</v>
+      </c>
       <c r="B43" s="1"/>
       <c r="C43" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D43" t="s">
-        <v>74</v>
-      </c>
-      <c r="E43" s="7">
-        <v>43250</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B44" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E43" s="4">
+        <v>43249</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="D44" t="s">
+        <v>72</v>
+      </c>
+      <c r="E44" s="4">
+        <v>43258</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c r="C45" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D44" t="s">
-        <v>73</v>
-      </c>
-      <c r="E44" s="7">
+      <c r="D45" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45" s="4">
         <v>43258</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B45" s="4"/>
-      <c r="C45" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D45" t="s">
-        <v>73</v>
-      </c>
-      <c r="E45" s="7">
+    <row r="46" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c r="C46" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" s="4">
         <v>43258</v>
       </c>
     </row>
-    <row r="46" spans="2:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="B46" s="4"/>
-      <c r="C46" s="2" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c r="C47" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D46" t="s">
-        <v>73</v>
-      </c>
-      <c r="E46" s="7">
+      <c r="D47" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" s="4">
         <v>43258</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B47" s="4"/>
-      <c r="C47" s="2" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c r="C48" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D47" t="s">
-        <v>73</v>
-      </c>
-      <c r="E47" s="7">
+      <c r="D48" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48" s="4">
         <v>43258</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B48" s="4"/>
-      <c r="C48" s="2" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c r="C49" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D48" t="s">
-        <v>73</v>
-      </c>
-      <c r="E48" s="7">
+      <c r="D49" t="s">
+        <v>72</v>
+      </c>
+      <c r="E49" s="4">
         <v>43258</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B49" s="4"/>
-      <c r="C49" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D49" t="s">
-        <v>73</v>
-      </c>
-      <c r="E49" s="7">
-        <v>43258</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B50" s="1"/>
       <c r="C50" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="B10:B14"/>
     <mergeCell ref="B29:B32"/>
     <mergeCell ref="B44:B49"/>
     <mergeCell ref="B33:B42"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="B15:B19"/>
     <mergeCell ref="B23:B28"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="B10:B14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DOC/20180524系统梳理.xlsx
+++ b/DOC/20180524系统梳理.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="84">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -422,6 +422,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -431,7 +432,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -442,12 +442,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -489,7 +492,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -524,7 +527,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -733,10 +736,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -826,7 +830,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -837,13 +841,16 @@
       </c>
       <c r="E5" s="4">
         <v>43245</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="3" t="s">
         <v>23</v>
       </c>
@@ -852,7 +859,7 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="3" t="s">
         <v>26</v>
       </c>
@@ -861,7 +868,7 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="3" t="s">
         <v>24</v>
       </c>
@@ -870,7 +877,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="3" t="s">
         <v>25</v>
       </c>
@@ -879,7 +886,7 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -891,7 +898,7 @@
       <c r="E10" s="4">
         <v>43245</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="6" t="s">
         <v>83</v>
       </c>
       <c r="G10" s="4">
@@ -902,7 +909,7 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="7"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="2" t="s">
         <v>31</v>
       </c>
@@ -912,7 +919,7 @@
       <c r="E11" s="4">
         <v>43245</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="6" t="s">
         <v>83</v>
       </c>
     </row>
@@ -920,7 +927,7 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="2" t="s">
         <v>32</v>
       </c>
@@ -930,7 +937,7 @@
       <c r="E12" s="4">
         <v>43245</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="6" t="s">
         <v>83</v>
       </c>
     </row>
@@ -938,7 +945,7 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="7"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="2" t="s">
         <v>33</v>
       </c>
@@ -948,7 +955,7 @@
       <c r="E13" s="4">
         <v>43245</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="6" t="s">
         <v>83</v>
       </c>
     </row>
@@ -956,7 +963,7 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="7"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="2" t="s">
         <v>34</v>
       </c>
@@ -971,7 +978,7 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -983,7 +990,7 @@
       <c r="E15" s="4">
         <v>43247</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="6" t="s">
         <v>83</v>
       </c>
     </row>
@@ -991,7 +998,7 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="7"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="2" t="s">
         <v>48</v>
       </c>
@@ -1006,7 +1013,7 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="7"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="2" t="s">
         <v>29</v>
       </c>
@@ -1021,7 +1028,7 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="7"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="2" t="s">
         <v>45</v>
       </c>
@@ -1031,7 +1038,7 @@
       <c r="E18" s="4">
         <v>43246</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="6" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1039,7 +1046,7 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="7"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="2" t="s">
         <v>46</v>
       </c>
@@ -1049,7 +1056,7 @@
       <c r="E19" s="4">
         <v>43245</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="6" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1057,7 +1064,7 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -1069,13 +1076,13 @@
       <c r="E20" s="4">
         <v>43246</v>
       </c>
-      <c r="F20" s="9"/>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="8"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="2" t="s">
         <v>37</v>
       </c>
@@ -1090,7 +1097,7 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="8"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="2" t="s">
         <v>38</v>
       </c>
@@ -1105,7 +1112,7 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -1122,7 +1129,7 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="7"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="2" t="s">
         <v>41</v>
       </c>
@@ -1137,7 +1144,7 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="7"/>
+      <c r="B25" s="8"/>
       <c r="C25" s="2" t="s">
         <v>42</v>
       </c>
@@ -1152,7 +1159,7 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="7"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="2" t="s">
         <v>43</v>
       </c>
@@ -1167,7 +1174,7 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="7"/>
+      <c r="B27" s="8"/>
       <c r="C27" s="2" t="s">
         <v>44</v>
       </c>
@@ -1182,7 +1189,7 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="7"/>
+      <c r="B28" s="8"/>
       <c r="C28" s="2" t="s">
         <v>47</v>
       </c>
@@ -1197,7 +1204,7 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="7" t="s">
         <v>77</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -1214,7 +1221,7 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="7"/>
+      <c r="B30" s="8"/>
       <c r="C30" s="2" t="s">
         <v>52</v>
       </c>
@@ -1229,7 +1236,7 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="7"/>
+      <c r="B31" s="8"/>
       <c r="C31" s="2" t="s">
         <v>53</v>
       </c>
@@ -1244,7 +1251,7 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="7"/>
+      <c r="B32" s="8"/>
       <c r="C32" s="2" t="s">
         <v>54</v>
       </c>
@@ -1259,7 +1266,7 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -1273,7 +1280,7 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="7"/>
+      <c r="B34" s="8"/>
       <c r="C34" s="2" t="s">
         <v>80</v>
       </c>
@@ -1288,7 +1295,7 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="7"/>
+      <c r="B35" s="8"/>
       <c r="C35" s="2" t="s">
         <v>61</v>
       </c>
@@ -1303,7 +1310,7 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="7"/>
+      <c r="B36" s="8"/>
       <c r="C36" s="2" t="s">
         <v>57</v>
       </c>
@@ -1318,7 +1325,7 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="7"/>
+      <c r="B37" s="8"/>
       <c r="C37" s="2" t="s">
         <v>58</v>
       </c>
@@ -1333,7 +1340,7 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="7"/>
+      <c r="B38" s="8"/>
       <c r="C38" s="2" t="s">
         <v>59</v>
       </c>
@@ -1348,7 +1355,7 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="7"/>
+      <c r="B39" s="8"/>
       <c r="C39" s="2" t="s">
         <v>60</v>
       </c>
@@ -1363,7 +1370,7 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="7"/>
+      <c r="B40" s="8"/>
       <c r="C40" s="2" t="s">
         <v>65</v>
       </c>
@@ -1378,7 +1385,7 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="7"/>
+      <c r="B41" s="8"/>
       <c r="C41" s="2" t="s">
         <v>66</v>
       </c>
@@ -1393,7 +1400,7 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="7"/>
+      <c r="B42" s="8"/>
       <c r="C42" s="2" t="s">
         <v>71</v>
       </c>
@@ -1423,7 +1430,7 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -1440,7 +1447,7 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="7"/>
+      <c r="B45" s="8"/>
       <c r="C45" s="2" t="s">
         <v>64</v>
       </c>
@@ -1455,7 +1462,7 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="7"/>
+      <c r="B46" s="8"/>
       <c r="C46" s="2" t="s">
         <v>67</v>
       </c>
@@ -1470,7 +1477,7 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="7"/>
+      <c r="B47" s="8"/>
       <c r="C47" s="2" t="s">
         <v>68</v>
       </c>
@@ -1485,7 +1492,7 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="7"/>
+      <c r="B48" s="8"/>
       <c r="C48" s="2" t="s">
         <v>69</v>
       </c>
@@ -1500,7 +1507,7 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="7"/>
+      <c r="B49" s="8"/>
       <c r="C49" s="2" t="s">
         <v>70</v>
       </c>
@@ -1534,6 +1541,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1689,6 +1697,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/DOC/20180524系统梳理.xlsx
+++ b/DOC/20180524系统梳理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -422,6 +422,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -431,7 +432,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -735,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -826,7 +826,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -843,7 +843,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="3" t="s">
         <v>23</v>
       </c>
@@ -852,7 +852,7 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="3" t="s">
         <v>26</v>
       </c>
@@ -861,7 +861,7 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="3" t="s">
         <v>24</v>
       </c>
@@ -870,7 +870,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="3" t="s">
         <v>25</v>
       </c>
@@ -879,7 +879,7 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -891,7 +891,7 @@
       <c r="E10" s="4">
         <v>43245</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="6" t="s">
         <v>83</v>
       </c>
       <c r="G10" s="4">
@@ -902,7 +902,7 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="7"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="2" t="s">
         <v>31</v>
       </c>
@@ -912,7 +912,7 @@
       <c r="E11" s="4">
         <v>43245</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="6" t="s">
         <v>83</v>
       </c>
     </row>
@@ -920,7 +920,7 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="2" t="s">
         <v>32</v>
       </c>
@@ -930,7 +930,7 @@
       <c r="E12" s="4">
         <v>43245</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="6" t="s">
         <v>83</v>
       </c>
     </row>
@@ -938,7 +938,7 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="7"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="2" t="s">
         <v>33</v>
       </c>
@@ -948,7 +948,7 @@
       <c r="E13" s="4">
         <v>43245</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="6" t="s">
         <v>83</v>
       </c>
     </row>
@@ -956,7 +956,7 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="7"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="2" t="s">
         <v>34</v>
       </c>
@@ -971,7 +971,7 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -983,7 +983,7 @@
       <c r="E15" s="4">
         <v>43247</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="6" t="s">
         <v>83</v>
       </c>
     </row>
@@ -991,7 +991,7 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="7"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="2" t="s">
         <v>48</v>
       </c>
@@ -1006,7 +1006,7 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="7"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="2" t="s">
         <v>29</v>
       </c>
@@ -1021,7 +1021,7 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="7"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="2" t="s">
         <v>45</v>
       </c>
@@ -1031,7 +1031,7 @@
       <c r="E18" s="4">
         <v>43246</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="6" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1039,7 +1039,7 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="7"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="2" t="s">
         <v>46</v>
       </c>
@@ -1049,7 +1049,7 @@
       <c r="E19" s="4">
         <v>43245</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="6" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -1069,13 +1069,13 @@
       <c r="E20" s="4">
         <v>43246</v>
       </c>
-      <c r="F20" s="9"/>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="8"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="2" t="s">
         <v>37</v>
       </c>
@@ -1090,7 +1090,7 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="8"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="2" t="s">
         <v>38</v>
       </c>
@@ -1105,7 +1105,7 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -1122,7 +1122,7 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="7"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="2" t="s">
         <v>41</v>
       </c>
@@ -1137,7 +1137,7 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="7"/>
+      <c r="B25" s="8"/>
       <c r="C25" s="2" t="s">
         <v>42</v>
       </c>
@@ -1152,7 +1152,7 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="7"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="2" t="s">
         <v>43</v>
       </c>
@@ -1167,7 +1167,7 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="7"/>
+      <c r="B27" s="8"/>
       <c r="C27" s="2" t="s">
         <v>44</v>
       </c>
@@ -1182,7 +1182,7 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="7"/>
+      <c r="B28" s="8"/>
       <c r="C28" s="2" t="s">
         <v>47</v>
       </c>
@@ -1197,10 +1197,10 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D29" t="s">
@@ -1214,8 +1214,8 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="2" t="s">
+      <c r="B30" s="8"/>
+      <c r="C30" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D30" t="s">
@@ -1229,7 +1229,7 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="7"/>
+      <c r="B31" s="8"/>
       <c r="C31" s="2" t="s">
         <v>53</v>
       </c>
@@ -1244,7 +1244,7 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="7"/>
+      <c r="B32" s="8"/>
       <c r="C32" s="2" t="s">
         <v>54</v>
       </c>
@@ -1259,10 +1259,10 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E33" s="4">
@@ -1273,8 +1273,8 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="2" t="s">
+      <c r="B34" s="8"/>
+      <c r="C34" s="3" t="s">
         <v>80</v>
       </c>
       <c r="D34" t="s">
@@ -1288,8 +1288,8 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="2" t="s">
+      <c r="B35" s="8"/>
+      <c r="C35" s="3" t="s">
         <v>61</v>
       </c>
       <c r="D35" t="s">
@@ -1303,8 +1303,8 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="2" t="s">
+      <c r="B36" s="8"/>
+      <c r="C36" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D36" t="s">
@@ -1318,7 +1318,7 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="7"/>
+      <c r="B37" s="8"/>
       <c r="C37" s="2" t="s">
         <v>58</v>
       </c>
@@ -1333,7 +1333,7 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="7"/>
+      <c r="B38" s="8"/>
       <c r="C38" s="2" t="s">
         <v>59</v>
       </c>
@@ -1348,8 +1348,8 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="2" t="s">
+      <c r="B39" s="8"/>
+      <c r="C39" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D39" t="s">
@@ -1363,7 +1363,7 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="7"/>
+      <c r="B40" s="8"/>
       <c r="C40" s="2" t="s">
         <v>65</v>
       </c>
@@ -1378,7 +1378,7 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="7"/>
+      <c r="B41" s="8"/>
       <c r="C41" s="2" t="s">
         <v>66</v>
       </c>
@@ -1393,7 +1393,7 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="7"/>
+      <c r="B42" s="8"/>
       <c r="C42" s="2" t="s">
         <v>71</v>
       </c>
@@ -1423,7 +1423,7 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -1440,7 +1440,7 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="7"/>
+      <c r="B45" s="8"/>
       <c r="C45" s="2" t="s">
         <v>64</v>
       </c>
@@ -1455,7 +1455,7 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="7"/>
+      <c r="B46" s="8"/>
       <c r="C46" s="2" t="s">
         <v>67</v>
       </c>
@@ -1470,7 +1470,7 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="7"/>
+      <c r="B47" s="8"/>
       <c r="C47" s="2" t="s">
         <v>68</v>
       </c>
@@ -1485,7 +1485,7 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="7"/>
+      <c r="B48" s="8"/>
       <c r="C48" s="2" t="s">
         <v>69</v>
       </c>
@@ -1500,7 +1500,7 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="7"/>
+      <c r="B49" s="8"/>
       <c r="C49" s="2" t="s">
         <v>70</v>
       </c>
